--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_DeepAR_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_DeepAR_General.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.6857363863522227</v>
+        <v>0.5537637576255825</v>
       </c>
       <c r="D2">
-        <v>0.4929109038860515</v>
+        <v>0.5833643669488036</v>
       </c>
       <c r="E2">
         <v>1.61961226722588</v>
@@ -464,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.6121289099992328</v>
+        <v>-0.5086014908303759</v>
       </c>
       <c r="D3">
-        <v>0.5404800903705227</v>
+        <v>0.6143161562620532</v>
       </c>
       <c r="E3">
         <v>1.61961226722588</v>
@@ -490,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.1254735902290425</v>
+        <v>-0.09764012866084447</v>
       </c>
       <c r="D4">
-        <v>0.9001536371731067</v>
+        <v>0.9227913984545495</v>
       </c>
       <c r="E4">
         <v>1.61961226722588</v>
@@ -516,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.6298757185941377</v>
+        <v>0.4906697927758693</v>
       </c>
       <c r="D5">
-        <v>0.5288044593302459</v>
+        <v>0.6268120133200328</v>
       </c>
       <c r="E5">
         <v>1.61961226722588</v>
@@ -542,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-1.236546534807445</v>
+        <v>-1.265061016659617</v>
       </c>
       <c r="D6">
-        <v>0.2163131098241953</v>
+        <v>0.2144514792615118</v>
       </c>
       <c r="E6">
         <v>1.44443301386205</v>
@@ -568,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.7178622120678217</v>
+        <v>-0.5939888942621706</v>
       </c>
       <c r="D7">
-        <v>0.472875528045309</v>
+        <v>0.5564513505541528</v>
       </c>
       <c r="E7">
         <v>1.44443301386205</v>
@@ -594,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.07080902536840304</v>
+        <v>0.07835147309814031</v>
       </c>
       <c r="D8">
-        <v>0.9435525585910918</v>
+        <v>0.9380077867662306</v>
       </c>
       <c r="E8">
         <v>1.44443301386205</v>
@@ -620,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.4693219280996584</v>
+        <v>0.369919842631242</v>
       </c>
       <c r="D9">
-        <v>0.63885984932155</v>
+        <v>0.7137365432727436</v>
       </c>
       <c r="E9">
         <v>1.844160557113622</v>
@@ -646,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.630315445097105</v>
+        <v>2.088287244325005</v>
       </c>
       <c r="D10">
-        <v>0.1030973436759464</v>
+        <v>0.04433352515238353</v>
       </c>
       <c r="E10">
         <v>1.844160557113622</v>
@@ -658,7 +661,7 @@
         <v>1.425242158493729</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -672,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.6098803287978225</v>
+        <v>0.4248076588568984</v>
       </c>
       <c r="D11">
-        <v>0.5419685844025164</v>
+        <v>0.6736532880805541</v>
       </c>
       <c r="E11">
         <v>1.649551441623868</v>
